--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1560967.648738548</v>
+        <v>-1563522.831467079</v>
       </c>
     </row>
     <row r="7">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>136.4159137733172</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>94.15726333599748</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>203.1893078277739</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>207.9328785210188</v>
+        <v>217.8151099225533</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>323.6043411114075</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>193.1703324333107</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.6909095611668</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>229.961852328531</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>184.256622736721</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.11136973851101</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>161.3529630655225</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012621</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>143.5476780877495</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>177.1006680594869</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>164.8280908524514</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.0347892581646</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>96.99837838564402</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>3.475606507923894</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>135.0949745400657</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,7 +2843,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,16 +3004,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>219.4517041866526</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265267</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1179.430764345701</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.430764345701</v>
+        <v>1703.012869240226</v>
       </c>
       <c r="D2" t="n">
-        <v>821.1650657389509</v>
+        <v>1344.747170633475</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>958.9589180352311</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2329.635694646715</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1956.169936385635</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1566.030604409823</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.573581468608</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064756</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.0643955080135</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
         <v>1972.980349513958</v>
@@ -4425,34 +4425,34 @@
         <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4471,64 +4471,64 @@
         <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U4" t="n">
-        <v>1854.900232967364</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>1151.43361471993</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y4" t="n">
         <v>862.0164446829692</v>
@@ -4553,61 +4553,61 @@
         <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2315.019447375623</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2315.019447375623</v>
       </c>
       <c r="Y5" t="n">
         <v>1988.146375545919</v>
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
         <v>1317.51949026613</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1732.173000176057</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1443.0701333017</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1443.0701333017</v>
       </c>
       <c r="W7" t="n">
-        <v>1034.285780247429</v>
+        <v>1443.0701333017</v>
       </c>
       <c r="X7" t="n">
-        <v>806.2962293494114</v>
+        <v>1215.080582403683</v>
       </c>
       <c r="Y7" t="n">
-        <v>806.2962293494114</v>
+        <v>994.2880032601528</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855438</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="C8" t="n">
-        <v>942.9472709150266</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="D8" t="n">
-        <v>942.9472709150266</v>
+        <v>1060.395265809903</v>
       </c>
       <c r="E8" t="n">
-        <v>557.1590183167823</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>550.2135175675788</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248226</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1904.959831180906</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1713.273947007732</v>
       </c>
       <c r="T10" t="n">
-        <v>1572.625872940044</v>
+        <v>1713.273947007732</v>
       </c>
       <c r="U10" t="n">
-        <v>1283.523006065687</v>
+        <v>1424.171080133376</v>
       </c>
       <c r="V10" t="n">
-        <v>1028.838517859801</v>
+        <v>1169.486591927489</v>
       </c>
       <c r="W10" t="n">
-        <v>739.4213478228399</v>
+        <v>1169.486591927489</v>
       </c>
       <c r="X10" t="n">
-        <v>511.4317969248226</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="Y10" t="n">
-        <v>511.4317969248226</v>
+        <v>941.4970410294717</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,25 +5221,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2052.064890853472</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831765</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
         <v>1280.315625093766</v>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,19 +5349,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
         <v>1268.578514636218</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1097.964082041489</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.0278991135817</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>778.911259701246</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>630.9981661188529</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.1082186209425</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5431,16 +5431,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1279.612546871728</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683104</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836018</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556949</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5933575433592</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>415.5933575433592</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>415.5933575433592</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2443.452369935893</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2260.597535590798</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138415</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,16 +6239,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>230.2762332904625</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
@@ -6467,46 +6467,46 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.792692443183</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075794</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345485</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384029</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656818</v>
@@ -7081,28 +7081,28 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7151,37 +7151,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7190,31 +7190,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,13 +7345,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7433,7 +7433,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7561,31 +7561,31 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>2.288530476235451e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>270.4601319683943</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>255.0837053814155</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>48.94833549605409</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22844,13 +22844,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>62.63359754465043</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>62.63359754464606</v>
       </c>
     </row>
     <row r="6">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>73.85777223953878</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>109.4223302771041</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.6960474398174199</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>68.52575990662483</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>62.89964020219777</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24415,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>40.30478226780065</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5.199738306158167</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>66.73277020259155</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1086339.741058647</v>
+        <v>1086339.741058646</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1297487.29271232</v>
+        <v>1297487.292712321</v>
       </c>
     </row>
     <row r="4">
@@ -26317,10 +26317,10 @@
         <v>142809.8237124527</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="F2" t="n">
         <v>141250.6549457511</v>
@@ -26338,22 +26338,22 @@
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.765727120073279e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363192</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12820.12292715302</v>
+        <v>12820.12292715306</v>
       </c>
       <c r="C4" t="n">
-        <v>89338.2629720729</v>
+        <v>89338.26297207319</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818169</v>
@@ -26430,31 +26430,31 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
+        <v>12996.86414683048</v>
+      </c>
+      <c r="H4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="H4" t="n">
-        <v>12996.86414683046</v>
-      </c>
       <c r="I4" t="n">
+        <v>12996.86414683041</v>
+      </c>
+      <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="J4" t="n">
-        <v>12996.8641468304</v>
-      </c>
       <c r="K4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.72340992389</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992389</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.72340992388</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992386</v>
       </c>
       <c r="P4" t="n">
         <v>20987.7234099239</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1330149.824576317</v>
+        <v>-1330497.443506122</v>
       </c>
       <c r="C6" t="n">
-        <v>-54462.37982101353</v>
+        <v>-54474.84390692513</v>
       </c>
       <c r="D6" t="n">
-        <v>-56435.52975332539</v>
+        <v>-56435.52975332551</v>
       </c>
       <c r="E6" t="n">
-        <v>-298281.2008323416</v>
+        <v>-298315.9387577773</v>
       </c>
       <c r="F6" t="n">
-        <v>27131.26097501357</v>
+        <v>27096.52304957787</v>
       </c>
       <c r="G6" t="n">
-        <v>27131.26097501355</v>
+        <v>27096.52304957779</v>
       </c>
       <c r="H6" t="n">
-        <v>27131.26097501356</v>
+        <v>27096.52304957785</v>
       </c>
       <c r="I6" t="n">
-        <v>27131.26097501357</v>
+        <v>27096.52304957787</v>
       </c>
       <c r="J6" t="n">
-        <v>-190399.9414222639</v>
+        <v>-190434.6793476994</v>
       </c>
       <c r="K6" t="n">
-        <v>27131.26097501365</v>
+        <v>27096.52304957785</v>
       </c>
       <c r="L6" t="n">
-        <v>102.7524687785772</v>
+        <v>102.7524687784026</v>
       </c>
       <c r="M6" t="n">
-        <v>-65524.55747310141</v>
+        <v>-65524.55747310139</v>
       </c>
       <c r="N6" t="n">
-        <v>19530.47046241038</v>
+        <v>19530.47046241035</v>
       </c>
       <c r="O6" t="n">
-        <v>19530.47046241036</v>
+        <v>19530.47046241033</v>
       </c>
       <c r="P6" t="n">
-        <v>19530.47046241039</v>
+        <v>19530.47046241033</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26808,13 +26808,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>78.67449265174378</v>
+        <v>131.4258587948597</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>26.37861684285849</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>152.8320887754242</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>151.9685177437308</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>226.6651029167325</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>66.82078293153631</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>58.19598621064668</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>338.1920576279222</v>
+        <v>339.9772972286976</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>301.1823051500296</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32485,7 +32485,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236508</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32573,7 +32573,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32950,7 +32950,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175677</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175677</v>
@@ -33257,19 +33257,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33415,13 +33415,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
         <v>867.8464071162563</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33731,34 +33731,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33968,16 +33968,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34147,13 +34147,13 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34205,34 +34205,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34442,16 +34442,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>196.0580237059039</v>
+        <v>197.8432633066793</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>159.0482712280113</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
         <v>735.300110790295</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
         <v>735.300110790295</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,13 +36926,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,13 +37063,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
         <v>632.079992146269</v>
@@ -37236,16 +37236,16 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,16 +37473,16 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
